--- a/rapport d’analyse SEO.xlsx
+++ b/rapport d’analyse SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D199E2-762E-4DDF-861C-A6BC693CA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D0997-1A8E-424A-97FA-03705161071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="25612" windowHeight="14039" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -903,12 +903,6 @@
     <t>Renseignement essentiel pour les moteurs de recherche</t>
   </si>
   <si>
-    <t>White hat SEO</t>
-  </si>
-  <si>
-    <t>De nombreuses pratiques de White hat sont utilisés</t>
-  </si>
-  <si>
     <t>Les supprimer</t>
   </si>
   <si>
@@ -921,9 +915,6 @@
     <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
   </si>
   <si>
-    <t>Gtmetrix</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Des balises </t>
     </r>
@@ -1014,6 +1005,631 @@
     <t>Tester les couleurs et contrastes avant de les utiliser</t>
   </si>
   <si>
+    <t>Balises sémantiques quasi inexistantes</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers après modifications</t>
+  </si>
+  <si>
+    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
+  </si>
+  <si>
+    <t>Manque-le ; à la fin</t>
+  </si>
+  <si>
+    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont déconseillés</t>
+    </r>
+  </si>
+  <si>
+    <t>Gros problèmes d’accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
+  </si>
+  <si>
+    <t>Tailles et format d’images non adaptés</t>
+  </si>
+  <si>
+    <t>La barre slash final n’a aucun effet</t>
+  </si>
+  <si>
+    <r>
+      <t>attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>success-msg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./css/style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
+  </si>
+  <si>
+    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erreur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">success-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fail-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à ce stade.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il existe l’attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOVALIDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qui empêche toute validation</t>
+    </r>
+  </si>
+  <si>
+    <t>n’est pas une valeur</t>
+  </si>
+  <si>
+    <r>
+      <t>La règle-arobase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@-ms-viewport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> n’est pas reconnue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propriété erronée : padding-left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n’est pas reconnu</t>
+    </r>
+  </si>
+  <si>
+    <t>Le contraste n’est pas bon sur le texte du Footer</t>
+  </si>
+  <si>
+    <r>
+      <t>Manque la balise</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;robots&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et la balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; meta description&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lieu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du rem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et non les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour définir la taille des caractères</t>
+    </r>
+  </si>
+  <si>
+    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
+  </si>
+  <si>
+    <t>Documentation Bootstrap</t>
+  </si>
+  <si>
+    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
+  </si>
+  <si>
+    <t>Dessin de la première page trop long</t>
+  </si>
+  <si>
+    <t>Il faut retarder tant que possible leur chargement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à la balise &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dans les balises H1 et P, remplacer la classe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tc-white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tc-black</t>
+    </r>
+  </si>
+  <si>
+    <t>Black hat</t>
+  </si>
+  <si>
+    <t>De nombreuses pratiques de Black hat sont utilisés</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Les versions de </t>
     </r>
@@ -1082,635 +1698,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>failles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de sécurité à elles deux.</t>
-    </r>
-  </si>
-  <si>
-    <t>Balises sémantiques quasi inexistantes</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers après modifications</t>
-  </si>
-  <si>
-    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
-  </si>
-  <si>
-    <t>Manque-le ; à la fin</t>
-  </si>
-  <si>
-    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont déconseillés</t>
-    </r>
-  </si>
-  <si>
-    <t>Gros problèmes d’accessibilité</t>
-  </si>
-  <si>
-    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
-  </si>
-  <si>
-    <t>Tailles et format d’images non adaptés</t>
-  </si>
-  <si>
-    <t>La barre slash final n’a aucun effet</t>
-  </si>
-  <si>
-    <r>
-      <t>attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>success-msg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./css/style.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
-  </si>
-  <si>
-    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erreur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">success-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fail-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à ce stade.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il existe l’attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOVALIDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> qui empêche toute validation</t>
-    </r>
-  </si>
-  <si>
-    <t>n’est pas une valeur</t>
-  </si>
-  <si>
-    <r>
-      <t>La règle-arobase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@-ms-viewport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> n’est pas reconnue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propriété erronée : padding-left </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n’est pas reconnu</t>
-    </r>
-  </si>
-  <si>
-    <t>Le contraste n’est pas bon sur le texte du Footer</t>
-  </si>
-  <si>
-    <r>
-      <t>Manque la balise</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;robots&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">et la balise </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt; meta description&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> au </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lieu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du rem.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et non les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour définir la taille des caractères</t>
-    </r>
-  </si>
-  <si>
-    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
-  </si>
-  <si>
-    <t>Documentation Bootstrap</t>
-  </si>
-  <si>
-    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
-  </si>
-  <si>
-    <t>Dessin de la première page trop long</t>
-  </si>
-  <si>
-    <t>Il faut retarder tant que possible leur chargement.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ajouter </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à la balise &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>script</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dans les balises H1 et P, remplacer la classe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tc-white</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tc-black</t>
+      <t>failles de sécurité.</t>
     </r>
   </si>
 </sst>
@@ -2258,8 +2246,8 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2320,7 +2308,7 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2365,13 +2353,13 @@
         <v>84</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" s="20">
         <v>22</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2397,23 +2385,23 @@
         <v>76</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2439,23 +2427,23 @@
         <v>76</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2481,23 +2469,23 @@
         <v>76</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2523,23 +2511,23 @@
         <v>76</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2565,23 +2553,23 @@
         <v>76</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -2607,23 +2595,23 @@
         <v>38</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>102</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2649,23 +2637,23 @@
         <v>76</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2691,23 +2679,23 @@
         <v>76</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -2733,23 +2721,23 @@
         <v>48</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2775,16 +2763,16 @@
         <v>38</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -2867,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>74</v>
@@ -2887,7 +2875,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -2917,7 +2905,7 @@
         <v>79</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12">
@@ -2932,10 +2920,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>56</v>
@@ -2952,10 +2940,10 @@
         <v>39</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
@@ -2989,10 +2977,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>80</v>
@@ -3012,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
@@ -3059,7 +3047,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>26</v>
@@ -3082,7 +3070,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
@@ -3099,7 +3087,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>19</v>
@@ -3148,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>45</v>
@@ -3168,7 +3156,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>49</v>
@@ -3189,10 +3177,10 @@
         <v>48</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>57</v>
@@ -3232,10 +3220,10 @@
         <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>65</v>
@@ -3246,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>67</v>

--- a/rapport d’analyse SEO.xlsx
+++ b/rapport d’analyse SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D0997-1A8E-424A-97FA-03705161071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466E12F-D859-48F6-A71F-D53AD41C82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="25612" windowHeight="14039" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="142">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Ligne(s)</t>
   </si>
   <si>
-    <t>Attribut non autorisé</t>
-  </si>
-  <si>
-    <t>le supprimer</t>
-  </si>
-  <si>
     <t>filter: progid:DXImageTransform.Microsoft.gradient(enabled=false)</t>
   </si>
   <si>
@@ -535,31 +529,6 @@
   </si>
   <si>
     <t>w3docs</t>
-  </si>
-  <si>
-    <r>
-      <t> href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>style.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
   </si>
   <si>
     <t>style.css</t>
@@ -814,9 +783,162 @@
     <t>Nombreuses lignes</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Fichier </t>
-    </r>
+    <t>Mettre à jour la version de Bootstrap</t>
+  </si>
+  <si>
+    <t>Passer les plus petites en 16px</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;title&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <t>Toujours mettre un titre à la page pour les recherches</t>
+  </si>
+  <si>
+    <t>Ajouter un titre</t>
+  </si>
+  <si>
+    <t>Renseignement essentiel pour les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Les supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polices trop petites, mauvais choix de couleurs et contrastes </t>
+  </si>
+  <si>
+    <t>Problème de sécurité</t>
+  </si>
+  <si>
+    <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Des balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;meta&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importantes sont absentes</t>
+    </r>
+  </si>
+  <si>
+    <t>Ne pas oublier ces balises</t>
+  </si>
+  <si>
+    <t>Ajouter ces balises</t>
+  </si>
+  <si>
+    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
+  </si>
+  <si>
+    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
+  </si>
+  <si>
+    <t>Convertir les formats et créer des images pour les versions mobiles</t>
+  </si>
+  <si>
+    <t>Manque le code pour Google Analytics</t>
+  </si>
+  <si>
+    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
+  </si>
+  <si>
+    <t>Toujours utiliser Google Analytics</t>
+  </si>
+  <si>
+    <t>Inclure le code de Google Analytics</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Problèmes SEO et Accessibilité</t>
+  </si>
+  <si>
+    <t>Utiliser le plus possible les balises sémantiques</t>
+  </si>
+  <si>
+    <t>Faire les modifications</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>color.A11Y.com</t>
+  </si>
+  <si>
+    <t>Taille des fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>Les fichiers ne sont pas minifiés</t>
+  </si>
+  <si>
+    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>PROBLÈMES</t>
+  </si>
+  <si>
+    <t>À proscrire, ne pas risquer un blacklistage</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs et contrastes défectueux</t>
+  </si>
+  <si>
+    <t>Tester les couleurs et contrastes avant de les utiliser</t>
+  </si>
+  <si>
+    <t>Balises sémantiques quasi inexistantes</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers après modifications</t>
+  </si>
+  <si>
+    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
+  </si>
+  <si>
+    <t>Manque-le ; à la fin</t>
+  </si>
+  <si>
+    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -825,7 +947,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>style.css</t>
+      <t>min-device-width</t>
     </r>
     <r>
       <rPr>
@@ -835,12 +957,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> à la racine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mettre tous les fichiers </t>
+      <t xml:space="preserve"> et </t>
     </r>
     <r>
       <rPr>
@@ -850,7 +967,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>css</t>
+      <t>max-device-width</t>
     </r>
     <r>
       <rPr>
@@ -860,18 +977,266 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> dans le même répertoire /css</t>
-    </r>
-  </si>
-  <si>
-    <t>Mettre à jour la version de Bootstrap</t>
-  </si>
-  <si>
-    <t>Passer les plus petites en 16px</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La balise </t>
+      <t xml:space="preserve"> sont déconseillés</t>
+    </r>
+  </si>
+  <si>
+    <t>Gros problèmes d’accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
+  </si>
+  <si>
+    <t>Tailles et format d’images non adaptés</t>
+  </si>
+  <si>
+    <t>La barre slash final n’a aucun effet</t>
+  </si>
+  <si>
+    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
+  </si>
+  <si>
+    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erreur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">success-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fail-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à ce stade.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il existe l’attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOVALIDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qui empêche toute validation</t>
+    </r>
+  </si>
+  <si>
+    <t>n’est pas une valeur</t>
+  </si>
+  <si>
+    <r>
+      <t>La règle-arobase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@-ms-viewport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> n’est pas reconnue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propriété erronée : padding-left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n’est pas reconnu</t>
+    </r>
+  </si>
+  <si>
+    <t>Le contraste n’est pas bon sur le texte du Footer</t>
+  </si>
+  <si>
+    <r>
+      <t>Manque la balise</t>
     </r>
     <r>
       <rPr>
@@ -881,7 +1246,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;title&gt;</t>
+      <t xml:space="preserve"> &lt;robots&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et la balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; meta description&gt;</t>
     </r>
     <r>
       <rPr>
@@ -894,29 +1278,8 @@
     </r>
   </si>
   <si>
-    <t>Toujours mettre un titre à la page pour les recherches</t>
-  </si>
-  <si>
-    <t>Ajouter un titre</t>
-  </si>
-  <si>
-    <t>Renseignement essentiel pour les moteurs de recherche</t>
-  </si>
-  <si>
-    <t>Les supprimer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polices trop petites, mauvais choix de couleurs et contrastes </t>
-  </si>
-  <si>
-    <t>Problème de sécurité</t>
-  </si>
-  <si>
-    <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Des balises </t>
+    <r>
+      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
     </r>
     <r>
       <rPr>
@@ -926,100 +1289,123 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;meta&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> importantes sont absentes</t>
-    </r>
-  </si>
-  <si>
-    <t>Ne pas oublier ces balises</t>
-  </si>
-  <si>
-    <t>Ajouter ces balises</t>
-  </si>
-  <si>
-    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
-  </si>
-  <si>
-    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
-  </si>
-  <si>
-    <t>Convertir les formats et créer des images pour les versions mobiles</t>
-  </si>
-  <si>
-    <t>Manque le code pour Google Analytics</t>
-  </si>
-  <si>
-    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
-  </si>
-  <si>
-    <t>Toujours utiliser Google Analytics</t>
-  </si>
-  <si>
-    <t>Inclure le code de Google Analytics</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>Problèmes SEO et Accessibilité</t>
-  </si>
-  <si>
-    <t>Utiliser le plus possible les balises sémantiques</t>
-  </si>
-  <si>
-    <t>Faire les modifications</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>color.A11Y.com</t>
-  </si>
-  <si>
-    <t>Taille des fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>Les fichiers ne sont pas minifiés</t>
-  </si>
-  <si>
-    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>PROBLÈMES</t>
-  </si>
-  <si>
-    <t>À proscrire, ne pas risquer un blacklistage</t>
-  </si>
-  <si>
-    <t>Modifier les couleurs et contrastes défectueux</t>
-  </si>
-  <si>
-    <t>Tester les couleurs et contrastes avant de les utiliser</t>
-  </si>
-  <si>
-    <t>Balises sémantiques quasi inexistantes</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers après modifications</t>
-  </si>
-  <si>
-    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
-  </si>
-  <si>
-    <t>Manque-le ; à la fin</t>
-  </si>
-  <si>
-    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
-  </si>
-  <si>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et non les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour définir la taille des caractères</t>
+    </r>
+  </si>
+  <si>
+    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
+  </si>
+  <si>
+    <t>Documentation Bootstrap</t>
+  </si>
+  <si>
+    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
+  </si>
+  <si>
+    <t>Dessin de la première page trop long</t>
+  </si>
+  <si>
+    <t>Il faut retarder tant que possible leur chargement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à la balise &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dans les balises H1 et P, remplacer la classe</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1028,7 +1414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>min-device-width</t>
+      <t xml:space="preserve"> tc-white</t>
     </r>
     <r>
       <rPr>
@@ -1038,7 +1424,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> et </t>
+      <t xml:space="preserve"> par </t>
     </r>
     <r>
       <rPr>
@@ -1048,338 +1434,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>max-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont déconseillés</t>
-    </r>
-  </si>
-  <si>
-    <t>Gros problèmes d’accessibilité</t>
-  </si>
-  <si>
-    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
-  </si>
-  <si>
-    <t>Tailles et format d’images non adaptés</t>
-  </si>
-  <si>
-    <t>La barre slash final n’a aucun effet</t>
-  </si>
-  <si>
-    <r>
-      <t>attribut </t>
+      <t>tc-black</t>
+    </r>
+  </si>
+  <si>
+    <t>Black hat</t>
+  </si>
+  <si>
+    <t>De nombreuses pratiques de Black hat sont utilisés</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les versions de </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>success-msg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> non autorisé sur l’élément </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootstrap.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./css/style.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
-  </si>
-  <si>
-    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erreur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">success-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fail-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à ce stade.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il existe l’attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOVALIDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> qui empêche toute validation</t>
-    </r>
-  </si>
-  <si>
-    <t>n’est pas une valeur</t>
-  </si>
-  <si>
-    <r>
-      <t>La règle-arobase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@-ms-viewport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> n’est pas reconnue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propriété erronée : padding-left </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n’est pas reconnu</t>
-    </r>
-  </si>
-  <si>
-    <t>Le contraste n’est pas bon sur le texte du Footer</t>
-  </si>
-  <si>
-    <r>
-      <t>Manque la balise</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jquery.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
     </r>
     <r>
       <rPr>
@@ -1389,16 +1493,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;robots&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">et la balise </t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1408,16 +1512,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt; meta description&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
+      <t>failles de sécurité.</t>
     </r>
   </si>
   <si>
@@ -1441,264 +1536,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> au </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lieu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du rem.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et non les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour définir la taille des caractères</t>
-    </r>
-  </si>
-  <si>
-    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
-  </si>
-  <si>
-    <t>Documentation Bootstrap</t>
-  </si>
-  <si>
-    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
-  </si>
-  <si>
-    <t>Dessin de la première page trop long</t>
-  </si>
-  <si>
-    <t>Il faut retarder tant que possible leur chargement.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ajouter </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à la balise &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>script</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dans les balises H1 et P, remplacer la classe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tc-white</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tc-black</t>
-    </r>
-  </si>
-  <si>
-    <t>Black hat</t>
-  </si>
-  <si>
-    <t>De nombreuses pratiques de Black hat sont utilisés</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les versions de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootstrap.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jquery.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>failles de sécurité.</t>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -1706,7 +1544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1752,14 +1590,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1927,7 +1757,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1950,10 +1780,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1968,10 +1798,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,13 +1816,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,13 +1831,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,11 +2073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2264,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -2308,7 +2138,7 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2338,28 +2168,28 @@
     </row>
     <row r="3" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G3" s="20">
         <v>22</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2382,26 +2212,26 @@
     </row>
     <row r="4" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2424,26 +2254,26 @@
     </row>
     <row r="5" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2466,26 +2296,26 @@
     </row>
     <row r="6" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2508,26 +2338,26 @@
     </row>
     <row r="7" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2550,26 +2380,26 @@
     </row>
     <row r="8" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -2592,26 +2422,26 @@
     </row>
     <row r="9" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2634,26 +2464,26 @@
     </row>
     <row r="10" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2676,26 +2506,26 @@
     </row>
     <row r="11" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -2718,26 +2548,26 @@
     </row>
     <row r="12" spans="1:26" s="18" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2760,19 +2590,19 @@
     </row>
     <row r="13" spans="1:26" s="18" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -2798,7 +2628,7 @@
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -2828,7 +2658,7 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -2841,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -2849,426 +2679,402 @@
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="C21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="12">
+        <v>4376</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="E23" s="12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4376</v>
+        <v>34</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>34</v>
+      <c r="F25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="12">
+        <v>7837</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="12">
-        <v>7837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="3">
-        <v>7825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="12"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -3397,25 +3203,25 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3424,7 +3230,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3514,24 +3320,8 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="5"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="5"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4473,17 +4263,15 @@
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F29" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId2"/>

--- a/rapport d’analyse SEO.xlsx
+++ b/rapport d’analyse SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466E12F-D859-48F6-A71F-D53AD41C82B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94964451-4C23-4EC2-A5BD-1894F3B79020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="25612" windowHeight="14039" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="142">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -534,9 +534,6 @@
     <t>style.css</t>
   </si>
   <si>
-    <t>Mauvaise méthode</t>
-  </si>
-  <si>
     <t>851 et 857</t>
   </si>
   <si>
@@ -599,18 +596,944 @@
     </r>
   </si>
   <si>
+    <t>Laisser juste novalidate et supprimer le reste</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supprimer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>success-msg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fail-msg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remplacer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>env</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenClassRoom</t>
+  </si>
+  <si>
+    <t>899, 900, 910, 911</t>
+  </si>
+  <si>
+    <t>VALIDATION WCAG 2.1</t>
+  </si>
+  <si>
+    <t>Titre et Texte en orange/orange</t>
+  </si>
+  <si>
+    <t>Ne sert visuellement à rien, White Hack</t>
+  </si>
+  <si>
+    <t>Faire attention aux couleurs</t>
+  </si>
+  <si>
+    <t>60 et 63</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Problème de contraste</t>
+  </si>
+  <si>
+    <t>Bien choisir ses couleurs et tester leur contraste</t>
+  </si>
+  <si>
+    <t>Mettre le texte en noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmenter la taille du titre du </t>
+  </si>
+  <si>
+    <t>Problème de contraste et lisibilité</t>
+  </si>
+  <si>
+    <t>Mettre les titres à leur taille</t>
+  </si>
+  <si>
+    <t>PageSpeed</t>
+  </si>
+  <si>
+    <t>Ne pas la mettre</t>
+  </si>
+  <si>
+    <t>Supprimer le slash /</t>
+  </si>
+  <si>
+    <t>Index.html et page2.html</t>
+  </si>
+  <si>
+    <t>Nombreuses lignes</t>
+  </si>
+  <si>
+    <t>Mettre à jour la version de Bootstrap</t>
+  </si>
+  <si>
+    <t>Passer les plus petites en 16px</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;title&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <t>Toujours mettre un titre à la page pour les recherches</t>
+  </si>
+  <si>
+    <t>Ajouter un titre</t>
+  </si>
+  <si>
+    <t>Renseignement essentiel pour les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Les supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polices trop petites, mauvais choix de couleurs et contrastes </t>
+  </si>
+  <si>
+    <t>Problème de sécurité</t>
+  </si>
+  <si>
+    <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Des balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;meta&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importantes sont absentes</t>
+    </r>
+  </si>
+  <si>
+    <t>Ne pas oublier ces balises</t>
+  </si>
+  <si>
+    <t>Ajouter ces balises</t>
+  </si>
+  <si>
+    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
+  </si>
+  <si>
+    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
+  </si>
+  <si>
+    <t>Convertir les formats et créer des images pour les versions mobiles</t>
+  </si>
+  <si>
+    <t>Manque le code pour Google Analytics</t>
+  </si>
+  <si>
+    <t>Inclure le code de Google Analytics</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Faire les modifications</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>color.A11Y.com</t>
+  </si>
+  <si>
+    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>PROBLÈMES</t>
+  </si>
+  <si>
+    <t>À proscrire, ne pas risquer un blacklistage</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs et contrastes défectueux</t>
+  </si>
+  <si>
+    <t>Tester les couleurs et contrastes avant de les utiliser</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers après modifications</t>
+  </si>
+  <si>
+    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
+  </si>
+  <si>
+    <t>Manque-le ; à la fin</t>
+  </si>
+  <si>
+    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont déconseillés</t>
+    </r>
+  </si>
+  <si>
+    <t>Gros problèmes d’accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
+  </si>
+  <si>
+    <t>Tailles et format d’images non adaptés</t>
+  </si>
+  <si>
+    <t>La barre slash final n’a aucun effet</t>
+  </si>
+  <si>
+    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erreur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">success-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fail-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à ce stade.</t>
+    </r>
+  </si>
+  <si>
+    <t>n’est pas une valeur</t>
+  </si>
+  <si>
+    <r>
+      <t>La règle-arobase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@-ms-viewport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> n’est pas reconnue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propriété erronée : padding-left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n’est pas reconnu</t>
+    </r>
+  </si>
+  <si>
+    <t>Le contraste n’est pas bon sur le texte du Footer</t>
+  </si>
+  <si>
+    <r>
+      <t>Manque la balise</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;robots&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et la balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; meta description&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et non les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour définir la taille des caractères</t>
+    </r>
+  </si>
+  <si>
+    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
+  </si>
+  <si>
+    <t>Documentation Bootstrap</t>
+  </si>
+  <si>
+    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
+  </si>
+  <si>
+    <t>Dessin de la première page trop long</t>
+  </si>
+  <si>
+    <t>Il faut retarder tant que possible leur chargement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à la balise &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dans les balises H1 et P, remplacer la classe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tc-white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tc-black</t>
+    </r>
+  </si>
+  <si>
+    <t>Black hat</t>
+  </si>
+  <si>
+    <t>De nombreuses pratiques de Black hat sont utilisés</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les versions de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootstrap.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jquery.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failles de sécurité.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Taille des fichiers CSS et JS, il est possible de gagner en poids et temps de chargement.</t>
+  </si>
+  <si>
+    <t>Il faut minifier les fichiers css et js</t>
+  </si>
+  <si>
+    <t>Problèmes de SEO, d'accessibilité et de référencement.</t>
+  </si>
+  <si>
+    <t>Les balises sémantiques sont quasi inexistantes.</t>
+  </si>
+  <si>
+    <t>Utiliser tant que possible les balises sémantiques</t>
+  </si>
+  <si>
+    <t>toptal.com et codebeautify.org</t>
+  </si>
+  <si>
+    <t>La vue statistique de Google Analytics est importante, mais c'est un métier à part entière.</t>
+  </si>
+  <si>
+    <t>Je recommande l'utilisation de Google Analytics</t>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter
+&lt;label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for="message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">&lt;label </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for="message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;
+le for="messsage" est manquant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le label associé au </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>id</t>
+      <t>TextArea</t>
     </r>
     <r>
       <rPr>
@@ -620,25 +1543,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>="message"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Laisser juste novalidate et supprimer le reste</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supprimer </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> possède un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>success-msg</t>
+      <t>id="message"</t>
     </r>
     <r>
       <rPr>
@@ -648,33 +1564,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">, et le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ne possèdepas de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>fail-msg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remplacer ID par FOR
-&lt;label </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
+      <t>for="message"</t>
     </r>
     <r>
       <rPr>
@@ -684,25 +1616,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>="message"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Il est important de passer son code au valideur comme W3C</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remplacer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il existe l’attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOVALIDATE</t>
     </r>
     <r>
       <rPr>
@@ -712,839 +1641,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>env</t>
-    </r>
-  </si>
-  <si>
-    <t>OpenClassRoom</t>
-  </si>
-  <si>
-    <t>899, 900, 910, 911</t>
-  </si>
-  <si>
-    <t>VALIDATION WCAG 2.1</t>
-  </si>
-  <si>
-    <t>Titre et Texte en orange/orange</t>
-  </si>
-  <si>
-    <t>Ne sert visuellement à rien, White Hack</t>
-  </si>
-  <si>
-    <t>Faire attention aux couleurs</t>
-  </si>
-  <si>
-    <t>60 et 63</t>
-  </si>
-  <si>
-    <t>Wave</t>
-  </si>
-  <si>
-    <t>Problème de contraste</t>
-  </si>
-  <si>
-    <t>Bien choisir ses couleurs et tester leur contraste</t>
-  </si>
-  <si>
-    <t>Mettre le texte en noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenter la taille du titre du </t>
-  </si>
-  <si>
-    <t>Problème de contraste et lisibilité</t>
-  </si>
-  <si>
-    <t>Mettre les titres à leur taille</t>
-  </si>
-  <si>
-    <t>PageSpeed</t>
-  </si>
-  <si>
-    <t>Ne pas la mettre</t>
-  </si>
-  <si>
-    <t>Supprimer le slash /</t>
-  </si>
-  <si>
-    <t>Index.html et page2.html</t>
-  </si>
-  <si>
-    <t>Nombreuses lignes</t>
-  </si>
-  <si>
-    <t>Mettre à jour la version de Bootstrap</t>
-  </si>
-  <si>
-    <t>Passer les plus petites en 16px</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La balise </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;title&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
-    </r>
-  </si>
-  <si>
-    <t>Toujours mettre un titre à la page pour les recherches</t>
-  </si>
-  <si>
-    <t>Ajouter un titre</t>
-  </si>
-  <si>
-    <t>Renseignement essentiel pour les moteurs de recherche</t>
-  </si>
-  <si>
-    <t>Les supprimer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polices trop petites, mauvais choix de couleurs et contrastes </t>
-  </si>
-  <si>
-    <t>Problème de sécurité</t>
-  </si>
-  <si>
-    <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Des balises </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;meta&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> importantes sont absentes</t>
-    </r>
-  </si>
-  <si>
-    <t>Ne pas oublier ces balises</t>
-  </si>
-  <si>
-    <t>Ajouter ces balises</t>
-  </si>
-  <si>
-    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
-  </si>
-  <si>
-    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
-  </si>
-  <si>
-    <t>Convertir les formats et créer des images pour les versions mobiles</t>
-  </si>
-  <si>
-    <t>Manque le code pour Google Analytics</t>
-  </si>
-  <si>
-    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
-  </si>
-  <si>
-    <t>Toujours utiliser Google Analytics</t>
-  </si>
-  <si>
-    <t>Inclure le code de Google Analytics</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>Problèmes SEO et Accessibilité</t>
-  </si>
-  <si>
-    <t>Utiliser le plus possible les balises sémantiques</t>
-  </si>
-  <si>
-    <t>Faire les modifications</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>color.A11Y.com</t>
-  </si>
-  <si>
-    <t>Taille des fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>Les fichiers ne sont pas minifiés</t>
-  </si>
-  <si>
-    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>PROBLÈMES</t>
-  </si>
-  <si>
-    <t>À proscrire, ne pas risquer un blacklistage</t>
-  </si>
-  <si>
-    <t>Modifier les couleurs et contrastes défectueux</t>
-  </si>
-  <si>
-    <t>Tester les couleurs et contrastes avant de les utiliser</t>
-  </si>
-  <si>
-    <t>Balises sémantiques quasi inexistantes</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers après modifications</t>
-  </si>
-  <si>
-    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
-  </si>
-  <si>
-    <t>Manque-le ; à la fin</t>
-  </si>
-  <si>
-    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont déconseillés</t>
-    </r>
-  </si>
-  <si>
-    <t>Gros problèmes d’accessibilité</t>
-  </si>
-  <si>
-    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
-  </si>
-  <si>
-    <t>Tailles et format d’images non adaptés</t>
-  </si>
-  <si>
-    <t>La barre slash final n’a aucun effet</t>
-  </si>
-  <si>
-    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
-  </si>
-  <si>
-    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erreur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">success-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fail-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à ce stade.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il existe l’attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOVALIDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> qui empêche toute validation</t>
-    </r>
-  </si>
-  <si>
-    <t>n’est pas une valeur</t>
-  </si>
-  <si>
-    <r>
-      <t>La règle-arobase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@-ms-viewport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> n’est pas reconnue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propriété erronée : padding-left </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n’est pas reconnu</t>
-    </r>
-  </si>
-  <si>
-    <t>Le contraste n’est pas bon sur le texte du Footer</t>
-  </si>
-  <si>
-    <r>
-      <t>Manque la balise</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;robots&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">et la balise </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt; meta description&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et non les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour définir la taille des caractères</t>
-    </r>
-  </si>
-  <si>
-    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
-  </si>
-  <si>
-    <t>Documentation Bootstrap</t>
-  </si>
-  <si>
-    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
-  </si>
-  <si>
-    <t>Dessin de la première page trop long</t>
-  </si>
-  <si>
-    <t>Il faut retarder tant que possible leur chargement.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ajouter </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à la balise &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>script</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dans les balises H1 et P, remplacer la classe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tc-white</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tc-black</t>
-    </r>
-  </si>
-  <si>
-    <t>Black hat</t>
-  </si>
-  <si>
-    <t>De nombreuses pratiques de Black hat sont utilisés</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les versions de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootstrap.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jquery.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>failles de sécurité.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t xml:space="preserve"> qui empêche toute validation, les messages sont donc inutiles.</t>
+    </r>
+  </si>
+  <si>
+    <t>Il est important de passer son code au valideur.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1656,6 +1764,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2077,7 +2193,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2138,7 +2254,7 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2171,25 +2287,25 @@
         <v>36</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G3" s="20">
         <v>22</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2212,26 +2328,26 @@
     </row>
     <row r="4" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2254,26 +2370,26 @@
     </row>
     <row r="5" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2296,26 +2412,26 @@
     </row>
     <row r="6" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2338,26 +2454,26 @@
     </row>
     <row r="7" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2380,26 +2496,26 @@
     </row>
     <row r="8" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -2425,23 +2541,23 @@
         <v>36</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2464,26 +2580,26 @@
     </row>
     <row r="10" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2506,26 +2622,26 @@
     </row>
     <row r="11" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -2551,23 +2667,23 @@
         <v>45</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2593,18 +2709,20 @@
         <v>36</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="H13" s="22"/>
       <c r="I13" s="17"/>
@@ -2658,7 +2776,7 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -2679,25 +2797,25 @@
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2705,16 +2823,16 @@
         <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>34</v>
@@ -2728,16 +2846,16 @@
         <v>37</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>34</v>
@@ -2765,13 +2883,13 @@
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>34</v>
@@ -2788,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
@@ -2835,7 +2953,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>24</v>
@@ -2858,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
@@ -2875,7 +2993,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -2924,7 +3042,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>43</v>
@@ -2944,20 +3062,20 @@
         <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2965,27 +3083,27 @@
         <v>45</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -2999,22 +3117,22 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -3022,19 +3140,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G32" s="12"/>
     </row>
@@ -3043,19 +3161,19 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G33" s="3"/>
     </row>

--- a/rapport d’analyse SEO.xlsx
+++ b/rapport d’analyse SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94964451-4C23-4EC2-A5BD-1894F3B79020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15CE604-9384-45EB-9BB7-CF44F3ADEA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="25612" windowHeight="14039" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,9 +389,6 @@
     <t>Index.html</t>
   </si>
   <si>
-    <t>Page2.html</t>
-  </si>
-  <si>
     <t>VALIDATION CSS</t>
   </si>
   <si>
@@ -702,15 +699,6 @@
     <t>Mettre le texte en noir</t>
   </si>
   <si>
-    <t xml:space="preserve">Augmenter la taille du titre du </t>
-  </si>
-  <si>
-    <t>Problème de contraste et lisibilité</t>
-  </si>
-  <si>
-    <t>Mettre les titres à leur taille</t>
-  </si>
-  <si>
     <t>PageSpeed</t>
   </si>
   <si>
@@ -720,18 +708,12 @@
     <t>Supprimer le slash /</t>
   </si>
   <si>
-    <t>Index.html et page2.html</t>
-  </si>
-  <si>
     <t>Nombreuses lignes</t>
   </si>
   <si>
     <t>Mettre à jour la version de Bootstrap</t>
   </si>
   <si>
-    <t>Passer les plus petites en 16px</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">La balise </t>
     </r>
@@ -777,8 +759,333 @@
     <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Des balises </t>
+    <t>Ne pas oublier ces balises</t>
+  </si>
+  <si>
+    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
+  </si>
+  <si>
+    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
+  </si>
+  <si>
+    <t>Convertir les formats et créer des images pour les versions mobiles</t>
+  </si>
+  <si>
+    <t>Manque le code pour Google Analytics</t>
+  </si>
+  <si>
+    <t>Inclure le code de Google Analytics</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Faire les modifications</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>color.A11Y.com</t>
+  </si>
+  <si>
+    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>PROBLÈMES</t>
+  </si>
+  <si>
+    <t>À proscrire, ne pas risquer un blacklistage</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs et contrastes défectueux</t>
+  </si>
+  <si>
+    <t>Tester les couleurs et contrastes avant de les utiliser</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers après modifications</t>
+  </si>
+  <si>
+    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
+  </si>
+  <si>
+    <t>Manque-le ; à la fin</t>
+  </si>
+  <si>
+    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont déconseillés</t>
+    </r>
+  </si>
+  <si>
+    <t>Gros problèmes d’accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
+  </si>
+  <si>
+    <t>Tailles et format d’images non adaptés</t>
+  </si>
+  <si>
+    <t>La barre slash final n’a aucun effet</t>
+  </si>
+  <si>
+    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erreur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">success-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fail-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à ce stade.</t>
+    </r>
+  </si>
+  <si>
+    <t>n’est pas une valeur</t>
+  </si>
+  <si>
+    <r>
+      <t>La règle-arobase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@-ms-viewport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> n’est pas reconnue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propriété erronée : padding-left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n’est pas reconnu</t>
+    </r>
+  </si>
+  <si>
+    <t>Le contraste n’est pas bon sur le texte du Footer</t>
+  </si>
+  <si>
+    <r>
+      <t>Manque la balise</t>
     </r>
     <r>
       <rPr>
@@ -788,349 +1095,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;meta&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> importantes sont absentes</t>
-    </r>
-  </si>
-  <si>
-    <t>Ne pas oublier ces balises</t>
-  </si>
-  <si>
-    <t>Ajouter ces balises</t>
-  </si>
-  <si>
-    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
-  </si>
-  <si>
-    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
-  </si>
-  <si>
-    <t>Convertir les formats et créer des images pour les versions mobiles</t>
-  </si>
-  <si>
-    <t>Manque le code pour Google Analytics</t>
-  </si>
-  <si>
-    <t>Inclure le code de Google Analytics</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>Faire les modifications</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>color.A11Y.com</t>
-  </si>
-  <si>
-    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>PROBLÈMES</t>
-  </si>
-  <si>
-    <t>À proscrire, ne pas risquer un blacklistage</t>
-  </si>
-  <si>
-    <t>Modifier les couleurs et contrastes défectueux</t>
-  </si>
-  <si>
-    <t>Tester les couleurs et contrastes avant de les utiliser</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers après modifications</t>
-  </si>
-  <si>
-    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
-  </si>
-  <si>
-    <t>Manque-le ; à la fin</t>
-  </si>
-  <si>
-    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont déconseillés</t>
-    </r>
-  </si>
-  <si>
-    <t>Gros problèmes d’accessibilité</t>
-  </si>
-  <si>
-    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
-  </si>
-  <si>
-    <t>Tailles et format d’images non adaptés</t>
-  </si>
-  <si>
-    <t>La barre slash final n’a aucun effet</t>
-  </si>
-  <si>
-    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erreur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">success-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fail-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à ce stade.</t>
-    </r>
-  </si>
-  <si>
-    <t>n’est pas une valeur</t>
-  </si>
-  <si>
-    <r>
-      <t>La règle-arobase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@-ms-viewport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> n’est pas reconnue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propriété erronée : padding-left </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n’est pas reconnu</t>
-    </r>
-  </si>
-  <si>
-    <t>Le contraste n’est pas bon sur le texte du Footer</t>
-  </si>
-  <si>
-    <r>
-      <t>Manque la balise</t>
+      <t xml:space="preserve"> &lt;robots&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et la balise </t>
     </r>
     <r>
       <rPr>
@@ -1140,16 +1114,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;robots&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">et la balise </t>
+      <t>&lt; meta description&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
     </r>
     <r>
       <rPr>
@@ -1159,21 +1138,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt; meta description&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et non les </t>
     </r>
     <r>
       <rPr>
@@ -1183,6 +1157,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>rem</t>
     </r>
     <r>
@@ -1192,49 +1190,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> et non les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> pour définir la taille des caractères</t>
     </r>
   </si>
@@ -1245,13 +1200,7 @@
     <t>Documentation Bootstrap</t>
   </si>
   <si>
-    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
-  </si>
-  <si>
     <t>Dessin de la première page trop long</t>
-  </si>
-  <si>
-    <t>Il faut retarder tant que possible leur chargement.</t>
   </si>
   <si>
     <r>
@@ -1646,6 +1595,57 @@
   </si>
   <si>
     <t>Il est important de passer son code au valideur.</t>
+  </si>
+  <si>
+    <t>Index.html et contact.html</t>
+  </si>
+  <si>
+    <t>contact.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Des balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;meta&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importantes sont absentes ou vides</t>
+    </r>
+  </si>
+  <si>
+    <t>Ajouter ces balises et les remplir</t>
+  </si>
+  <si>
+    <t>Au premier chargement de page, le téléchargement des fichiers Javascript est trop chronophage.</t>
+  </si>
+  <si>
+    <t>Il faut diférer leur chargement.</t>
+  </si>
+  <si>
+    <t>Problème de contrastes et lisibilités</t>
+  </si>
+  <si>
+    <t>Augmenter la taille de certains titres, la taille de certains textes trop petit</t>
+  </si>
+  <si>
+    <t>Pensez accessibilité</t>
+  </si>
+  <si>
+    <t>Passer les plus petites police en 16px</t>
   </si>
 </sst>
 </file>
@@ -2189,11 +2189,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:G30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2287,25 +2290,25 @@
         <v>36</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G3" s="20">
         <v>22</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2328,26 +2331,26 @@
     </row>
     <row r="4" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2370,26 +2373,26 @@
     </row>
     <row r="5" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2412,26 +2415,26 @@
     </row>
     <row r="6" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2454,26 +2457,26 @@
     </row>
     <row r="7" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2496,26 +2499,26 @@
     </row>
     <row r="8" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -2541,23 +2544,23 @@
         <v>36</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2580,26 +2583,26 @@
     </row>
     <row r="10" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2622,26 +2625,26 @@
     </row>
     <row r="11" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -2664,26 +2667,26 @@
     </row>
     <row r="12" spans="1:26" s="18" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2709,19 +2712,19 @@
         <v>36</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="22"/>
@@ -2776,7 +2779,7 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -2797,42 +2800,42 @@
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>34</v>
@@ -2843,19 +2846,19 @@
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>34</v>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -2877,19 +2880,19 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>34</v>
@@ -2900,13 +2903,13 @@
     </row>
     <row r="21" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
@@ -2921,7 +2924,7 @@
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="23" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>23</v>
@@ -2953,7 +2956,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>24</v>
@@ -2967,7 +2970,7 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>25</v>
@@ -2976,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
@@ -2990,10 +2993,10 @@
     </row>
     <row r="25" spans="1:7" s="13" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
@@ -3036,22 +3039,22 @@
     </row>
     <row r="27" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="G27" s="12">
         <v>110</v>
@@ -3059,51 +3062,51 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -3114,25 +3117,25 @@
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -3140,19 +3143,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="12"/>
     </row>
@@ -3161,19 +3164,19 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -4391,7 +4394,7 @@
   <hyperlinks>
     <hyperlink ref="F27" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>